--- a/data/trans_dic/P2A_psíq_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02420938362298367</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.01422875296993026</v>
+        <v>0.01422875296993027</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.00817001948735716</v>
@@ -685,7 +685,7 @@
         <v>0.02046394036973118</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.02458076255156856</v>
+        <v>0.02458076255156857</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01244236180519218</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003716735968474866</v>
+        <v>0.003724231277267616</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02175957755874955</v>
+        <v>0.02414005937283526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009748218640209238</v>
+        <v>0.00960055643677373</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005646464411523442</v>
+        <v>0.004814200503048796</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0147864762888954</v>
+        <v>0.01407842525532114</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.007630949469782415</v>
+        <v>0.006731229754192305</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01175433690030591</v>
+        <v>0.01112083943397197</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.005019107221567964</v>
+        <v>0.004001839511658099</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02411136484461769</v>
+        <v>0.02348323757266784</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01169030282568836</v>
+        <v>0.01152866806525017</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01154297703157629</v>
+        <v>0.01025619927848148</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04213474811940384</v>
+        <v>0.04148173691221452</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07613957353483247</v>
+        <v>0.08486634063299212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05561276911597312</v>
+        <v>0.05257603741888666</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03318967769397762</v>
+        <v>0.03343963523230043</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02508237252276483</v>
+        <v>0.03245349213247922</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06252805894299499</v>
+        <v>0.06154566209331003</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04742210573644171</v>
+        <v>0.04959536772446229</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04741937028461729</v>
+        <v>0.0524559883861845</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02851772291247934</v>
+        <v>0.02684599806452382</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06115544149135082</v>
+        <v>0.05889573768574474</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03823131985424591</v>
+        <v>0.03895008462827149</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03258847031532863</v>
+        <v>0.03322054800546831</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.009653818267180104</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03328897453864275</v>
+        <v>0.03328897453864276</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01798423634537255</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004044228922667873</v>
+        <v>0.004044397315857905</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01453309724507265</v>
+        <v>0.01366997871374599</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01621444816942254</v>
+        <v>0.01780707415258814</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005890881182310588</v>
+        <v>0.005827044987842376</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003785632764377822</v>
+        <v>0.003812398292877803</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02073534175968224</v>
+        <v>0.01982100365834569</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01075587098830556</v>
+        <v>0.01111002163669008</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006978900760798741</v>
+        <v>0.006868244609930625</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002918700884396018</v>
+        <v>0.002652634805366462</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02086477001666101</v>
+        <v>0.01933851750221871</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01899682489204806</v>
+        <v>0.01848126677243523</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0308142911645641</v>
+        <v>0.03022544136061837</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0112048294176001</v>
+        <v>0.01132573123285249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04823591500662465</v>
+        <v>0.05027308262338545</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04769294143199889</v>
+        <v>0.04754500837063762</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02917718599093472</v>
+        <v>0.02744578531802083</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02194495849725123</v>
+        <v>0.02106121813175851</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05649842274883773</v>
+        <v>0.05328567313982247</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02831532382862218</v>
+        <v>0.02891003732738359</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02470271685994771</v>
+        <v>0.02307148252869852</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01271545813517012</v>
+        <v>0.01288420587289458</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04406615493114709</v>
+        <v>0.04315892723378</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.01215943160473009</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.02184888430856898</v>
+        <v>0.02184888430856899</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.006458253849817005</v>
@@ -969,7 +969,7 @@
         <v>0.006244447497280299</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02320263648884457</v>
+        <v>0.02320263648884456</v>
       </c>
     </row>
     <row r="11">
@@ -983,35 +983,35 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009450420485978566</v>
+        <v>0.01209659291973533</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.01246307290406509</v>
+        <v>0.01250553932793259</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.666309870726021e-07</v>
+        <v>1.659401239414803e-07</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007759023589215212</v>
+        <v>0.007787120627173091</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003197010229206929</v>
+        <v>0.003664143772397447</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01200965045111687</v>
+        <v>0.01132088799862574</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001628462246751779</v>
+        <v>0.001629477588361079</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01304587537994549</v>
+        <v>0.01269378391447845</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001395253939391723</v>
+        <v>0.001650727837229366</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01486855946161998</v>
+        <v>0.01465565027127614</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02293742965917393</v>
+        <v>0.02010865159235659</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06098866488936817</v>
+        <v>0.06484162195276943</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.05040368031821687</v>
+        <v>0.04854883427118509</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02363845334636917</v>
+        <v>0.0220065301898609</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04287838707437575</v>
+        <v>0.04134331363956874</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03013465372304781</v>
+        <v>0.02809945726566996</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0371334383099097</v>
+        <v>0.03637349820638914</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01644330496924556</v>
+        <v>0.01609030219042405</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04288883822176368</v>
+        <v>0.04266275069941849</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0152032296483726</v>
+        <v>0.01485782486274666</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03453579754574645</v>
+        <v>0.03627863243053317</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002980848157343249</v>
+        <v>0.002941583962373511</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003018335048793444</v>
+        <v>0.002845814116086877</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01308470261556186</v>
+        <v>0.01425223368167458</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002472621956869178</v>
+        <v>0.002511019573463385</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01694806197243508</v>
+        <v>0.01503360502779487</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02558037194007346</v>
+        <v>0.02515105536644168</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008954745182126743</v>
+        <v>0.008795363556707927</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003914121429147297</v>
+        <v>0.004453317442398823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01268840775015034</v>
+        <v>0.01311392056918588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02350291018004889</v>
+        <v>0.02254458583471353</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.005898477070808084</v>
+        <v>0.006304364215972718</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03008434450403388</v>
+        <v>0.03093120944310925</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02831957421154677</v>
+        <v>0.02583629638948454</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05345750312173759</v>
+        <v>0.05106300268935272</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01712601721274561</v>
+        <v>0.01858289958630022</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0213234490704519</v>
+        <v>0.02209424167855772</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0506797702012252</v>
+        <v>0.0504865436599215</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07042948503198659</v>
+        <v>0.06969428479362486</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0297553096502699</v>
+        <v>0.02803018032182059</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02132698835960923</v>
+        <v>0.02141923205702607</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03204080405853543</v>
+        <v>0.03250517931452948</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05138467777630238</v>
+        <v>0.05066429353048833</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01818194722101442</v>
+        <v>0.01840837691132869</v>
       </c>
     </row>
     <row r="16">
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.003916018454961078</v>
+        <v>0.003980681184380597</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01319850114001564</v>
+        <v>0.01488574841006396</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
@@ -1260,28 +1260,28 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.004808581154445163</v>
+        <v>0.004839171387810101</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01348884076533072</v>
+        <v>0.01313978935623009</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004401301846324793</v>
+        <v>0.004413449451629143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.005299685702403526</v>
+        <v>0.006041779645102838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01965947765758027</v>
+        <v>0.01832535510902314</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.005101178765435482</v>
+        <v>0.004603397161388526</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.001672051312626296</v>
+        <v>0.00191514703072232</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03557198949700067</v>
+        <v>0.03643827314877387</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06804921237730395</v>
+        <v>0.06863770846860498</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03248468066426372</v>
+        <v>0.028190503944108</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02593343207416829</v>
+        <v>0.02598849385979613</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04258411820425388</v>
+        <v>0.04240377899649179</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06538889680788329</v>
+        <v>0.06584463689066171</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04729121815091545</v>
+        <v>0.04254593233239872</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0156307064983307</v>
+        <v>0.01230581364346802</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0302491965061595</v>
+        <v>0.03092024030471751</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05702360467709863</v>
+        <v>0.05709162590045651</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02840168059774248</v>
+        <v>0.02735225770712906</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01425828831232517</v>
+        <v>0.01470577634088747</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.01170610609045845</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.03807726821203783</v>
+        <v>0.03807726821203782</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.001776135245643981</v>
@@ -1387,35 +1387,35 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.00698870352241446</v>
+        <v>0.007122794895257259</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02116549819386555</v>
+        <v>0.01901923499504055</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.01091053059343828</v>
+        <v>0.01089458869281081</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003368212329387172</v>
+        <v>0.003387579777099213</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02365694275892005</v>
+        <v>0.02443434973212858</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01248946139526472</v>
+        <v>0.0123404420902139</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.002191515344738807</v>
+        <v>0.002001529417869635</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02601452055653139</v>
+        <v>0.0253458716127495</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01946989381148496</v>
+        <v>0.01805484997895102</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04396507890144291</v>
+        <v>0.04324403895778977</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02028499933077778</v>
+        <v>0.02055380825144534</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0621318429263126</v>
+        <v>0.05974861649447036</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.04900657770796649</v>
+        <v>0.05054284106631131</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03368710746300828</v>
+        <v>0.03151515833389854</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05886625267021055</v>
+        <v>0.05991964556931881</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.008898730294801309</v>
+        <v>0.009712990348874314</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03708790694621777</v>
+        <v>0.03691746504266785</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01891517149735299</v>
+        <v>0.01858165489685135</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05214620191469186</v>
+        <v>0.0521351638118876</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         <v>0.005075377462610384</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.03555347572195699</v>
+        <v>0.03555347572195698</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.007457516410289241</v>
@@ -1505,7 +1505,7 @@
         <v>0.007060342323085233</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04824899593816377</v>
+        <v>0.04824899593816378</v>
       </c>
     </row>
     <row r="23">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00286955584126119</v>
+        <v>0.002672827144353846</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009187912317289522</v>
+        <v>0.009227044997977477</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001594479959864376</v>
+        <v>0.001613063278349668</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02348682844092542</v>
+        <v>0.02227553244743007</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.002906440658471228</v>
+        <v>0.002893285963022818</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.006994544585520037</v>
+        <v>0.006113127289025086</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.002926719219753789</v>
+        <v>0.003079752501640939</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04574229720757138</v>
+        <v>0.04580054585860272</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00386154929728831</v>
+        <v>0.003771955125121882</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.008776308491243962</v>
+        <v>0.009626171205131082</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.003313986582666786</v>
+        <v>0.003733010535742012</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03828893488130741</v>
+        <v>0.0376218078319811</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01695676846514312</v>
+        <v>0.01596271660078805</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0291592562052433</v>
+        <v>0.0303393189258515</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01390012366799424</v>
+        <v>0.01483711242527923</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05377233524796675</v>
+        <v>0.05449577278557617</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01627139358594403</v>
+        <v>0.01689325246205978</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02470897489245822</v>
+        <v>0.02620485082017486</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01837826075691969</v>
+        <v>0.01772371521465618</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07722532071889236</v>
+        <v>0.08078148495836192</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01355338525063645</v>
+        <v>0.01284661991751791</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02331067008058623</v>
+        <v>0.02257424634284886</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01241545447169979</v>
+        <v>0.01304845636542418</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06007697949008296</v>
+        <v>0.06010889021408317</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1617,7 @@
         <v>0.009297867344959635</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.01987821470755243</v>
+        <v>0.01987821470755242</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.01159667882407208</v>
@@ -1652,40 +1652,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.004593484834319547</v>
+        <v>0.00478183985292008</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.003696328396097533</v>
+        <v>0.003786958176061669</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.004085568910091002</v>
+        <v>0.003909112804369922</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01211619473268329</v>
+        <v>0.01138517037117483</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.005333679464878467</v>
+        <v>0.004637743196730629</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01007523313523042</v>
+        <v>0.01024315095096281</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.007086236377411403</v>
+        <v>0.007431653810020787</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01246798748530016</v>
+        <v>0.01255922609041524</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.006419261714883643</v>
+        <v>0.006454507978979319</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.008711750760307625</v>
+        <v>0.008017732282389495</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.007361086610114339</v>
+        <v>0.006720945907686137</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01392293270108982</v>
+        <v>0.01373595083479219</v>
       </c>
     </row>
     <row r="27">
@@ -1696,40 +1696,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02119779082585089</v>
+        <v>0.0214516359136682</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02225238858130263</v>
+        <v>0.02072849979650365</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01813241583317125</v>
+        <v>0.01893085728546886</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03267060696369287</v>
+        <v>0.03230191156781971</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02233867096801448</v>
+        <v>0.02308719650111261</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03131513938513809</v>
+        <v>0.03054340937291715</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02626966722766563</v>
+        <v>0.02645597780647201</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02856153588337023</v>
+        <v>0.02916323853771445</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01784595535502409</v>
+        <v>0.01831327768740891</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02154826404683042</v>
+        <v>0.0209026253481856</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01862471179653743</v>
+        <v>0.01876832132817564</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02765284150799841</v>
+        <v>0.02824361804283474</v>
       </c>
     </row>
     <row r="28">
@@ -1765,7 +1765,7 @@
         <v>0.01616244951944801</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.03054898305467278</v>
+        <v>0.03054898305467277</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.01039950783791335</v>
@@ -1777,7 +1777,7 @@
         <v>0.01285362159469058</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.02685906644448946</v>
+        <v>0.02685906644448947</v>
       </c>
     </row>
     <row r="29">
@@ -1788,40 +1788,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.005705235316426005</v>
+        <v>0.00600103325406212</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01414848680079595</v>
+        <v>0.01441671680108737</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.006449653830936497</v>
+        <v>0.006543443127661691</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01830734087384408</v>
+        <v>0.01770195208783682</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.008275318145812454</v>
+        <v>0.00848755459349949</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01615517333972397</v>
+        <v>0.01617893488136041</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01226777890256199</v>
+        <v>0.01216397157713051</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02598682349423515</v>
+        <v>0.02570243198526822</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.008233181728571208</v>
+        <v>0.0079664480163226</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01610657048224176</v>
+        <v>0.01633018091644395</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01030852208111172</v>
+        <v>0.01007083777544465</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02381487431369245</v>
+        <v>0.02344928920123319</v>
       </c>
     </row>
     <row r="30">
@@ -1832,40 +1832,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0128682468468541</v>
+        <v>0.01311863160486967</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02363104247314323</v>
+        <v>0.02441980234409478</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01343922874201816</v>
+        <v>0.01337330100080003</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02942885082304101</v>
+        <v>0.02860337970124353</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.01597138575777369</v>
+        <v>0.01610494862382915</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.02607362106024681</v>
+        <v>0.02607739144409229</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02099387039241698</v>
+        <v>0.02124415780359296</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03595319962307084</v>
+        <v>0.03553649131119944</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01332964997505975</v>
+        <v>0.01313559146719461</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.02299264258588515</v>
+        <v>0.02349212333342974</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.01588208482769213</v>
+        <v>0.01576749351607956</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03110430454993354</v>
+        <v>0.03075495177229562</v>
       </c>
     </row>
     <row r="31">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6413</v>
+        <v>7115</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2864</v>
+        <v>2820</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1800</v>
+        <v>1535</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4247</v>
+        <v>4044</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2203</v>
+        <v>1943</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3715</v>
+        <v>3515</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2679</v>
+        <v>2136</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14032</v>
+        <v>13667</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6809</v>
+        <v>6715</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7329</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="7">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11503</v>
+        <v>11325</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22441</v>
+        <v>25013</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16337</v>
+        <v>15445</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10582</v>
+        <v>10662</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6542</v>
+        <v>8465</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17961</v>
+        <v>17679</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13691</v>
+        <v>14318</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14987</v>
+        <v>16579</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15224</v>
+        <v>14332</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>35591</v>
+        <v>34276</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>22268</v>
+        <v>22687</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20691</v>
+        <v>21092</v>
       </c>
     </row>
     <row r="8">
@@ -2323,37 +2323,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7712</v>
+        <v>7254</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8171</v>
+        <v>8974</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3085</v>
+        <v>3052</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1980</v>
+        <v>1994</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11332</v>
+        <v>10832</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10724</v>
+        <v>11077</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>7183</v>
+        <v>7069</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2994</v>
+        <v>2721</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>22474</v>
+        <v>20830</v>
       </c>
     </row>
     <row r="11">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9367</v>
+        <v>9113</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15577</v>
+        <v>15280</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5631</v>
+        <v>5692</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25596</v>
+        <v>26677</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24035</v>
+        <v>23960</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15282</v>
+        <v>14375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11479</v>
+        <v>11017</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>30876</v>
+        <v>29120</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>28231</v>
+        <v>28824</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>25426</v>
+        <v>23747</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13042</v>
+        <v>13215</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>47465</v>
+        <v>46488</v>
       </c>
     </row>
     <row r="12">
@@ -2503,35 +2503,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3062</v>
+        <v>3920</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>3938</v>
+        <v>3952</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1075</v>
+        <v>1232</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4280</v>
+        <v>4035</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8676</v>
+        <v>8442</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>914</v>
+        <v>1081</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9997</v>
+        <v>9854</v>
       </c>
     </row>
     <row r="15">
@@ -2542,38 +2542,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7314</v>
+        <v>6412</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19763</v>
+        <v>21012</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>15927</v>
+        <v>15341</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7929</v>
+        <v>7381</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14622</v>
+        <v>14099</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10135</v>
+        <v>9450</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13234</v>
+        <v>12963</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10758</v>
+        <v>10527</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>28524</v>
+        <v>28374</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9956</v>
+        <v>9730</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23221</v>
+        <v>24393</v>
       </c>
     </row>
     <row r="16">
@@ -2676,40 +2676,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1129</v>
+        <v>1064</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4841</v>
+        <v>5273</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>918</v>
+        <v>933</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6592</v>
+        <v>5847</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9907</v>
+        <v>9741</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3779</v>
+        <v>3711</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2858</v>
+        <v>3251</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9680</v>
+        <v>10005</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>17798</v>
+        <v>17072</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4690</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="19">
@@ -2720,40 +2720,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10790</v>
+        <v>11094</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10591</v>
+        <v>9662</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19777</v>
+        <v>18891</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6390</v>
+        <v>6934</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7921</v>
+        <v>8207</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>19712</v>
+        <v>19637</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27276</v>
+        <v>26991</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12556</v>
+        <v>11828</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15571</v>
+        <v>15639</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>24445</v>
+        <v>24799</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>38911</v>
+        <v>38365</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>14457</v>
+        <v>14637</v>
       </c>
     </row>
     <row r="20">
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2806</v>
+        <v>3165</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
@@ -2868,28 +2868,28 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2962</v>
+        <v>2885</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2178</v>
+        <v>2483</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>8497</v>
+        <v>7920</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2193</v>
+        <v>1979</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>727</v>
+        <v>832</v>
       </c>
     </row>
     <row r="23">
@@ -2900,40 +2900,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7232</v>
+        <v>7408</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14468</v>
+        <v>14594</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6861</v>
+        <v>5954</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>5334</v>
+        <v>5345</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8843</v>
+        <v>8806</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14359</v>
+        <v>14459</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10337</v>
+        <v>9300</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3578</v>
+        <v>2817</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12432</v>
+        <v>12707</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>24646</v>
+        <v>24676</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12207</v>
+        <v>11756</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6196</v>
+        <v>6391</v>
       </c>
     </row>
     <row r="24">
@@ -3039,35 +3039,35 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1915</v>
+        <v>1952</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5730</v>
+        <v>5149</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6240</v>
+        <v>6445</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>6919</v>
+        <v>6837</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1175</v>
+        <v>1073</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>13904</v>
+        <v>13546</v>
       </c>
     </row>
     <row r="27">
@@ -3078,38 +3078,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5273</v>
+        <v>4889</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12046</v>
+        <v>11848</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5337</v>
+        <v>5408</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16820</v>
+        <v>16174</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>13723</v>
+        <v>14154</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9200</v>
+        <v>8607</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>15526</v>
+        <v>15804</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4885</v>
+        <v>5332</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>20547</v>
+        <v>20453</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>10143</v>
+        <v>9964</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>27870</v>
+        <v>27864</v>
       </c>
     </row>
     <row r="28">
@@ -3212,40 +3212,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1765</v>
+        <v>1644</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6090</v>
+        <v>6116</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>16903</v>
+        <v>16031</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>4853</v>
+        <v>4242</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2023</v>
+        <v>2129</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>35316</v>
+        <v>35361</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4839</v>
+        <v>4727</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>11906</v>
+        <v>13059</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4467</v>
+        <v>5032</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>57117</v>
+        <v>56122</v>
       </c>
     </row>
     <row r="31">
@@ -3256,40 +3256,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10429</v>
+        <v>9818</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19326</v>
+        <v>20109</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>9126</v>
+        <v>9741</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>38699</v>
+        <v>39220</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10385</v>
+        <v>10782</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>17144</v>
+        <v>18182</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12705</v>
+        <v>12252</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>59622</v>
+        <v>62368</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>16986</v>
+        <v>16100</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>31624</v>
+        <v>30625</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>16734</v>
+        <v>17587</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>89619</v>
+        <v>89667</v>
       </c>
     </row>
     <row r="32">
@@ -3392,40 +3392,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3417</v>
+        <v>3557</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2880</v>
+        <v>2950</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3181</v>
+        <v>3044</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9670</v>
+        <v>9086</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4179</v>
+        <v>3634</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>8301</v>
+        <v>8439</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>5854</v>
+        <v>6140</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>10365</v>
+        <v>10441</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>9804</v>
+        <v>9858</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>13965</v>
+        <v>12852</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>11813</v>
+        <v>10785</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>22686</v>
+        <v>22381</v>
       </c>
     </row>
     <row r="35">
@@ -3436,40 +3436,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>15767</v>
+        <v>15956</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>17337</v>
+        <v>16150</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>14118</v>
+        <v>14739</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>26073</v>
+        <v>25779</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>17503</v>
+        <v>18089</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>25799</v>
+        <v>25163</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>21703</v>
+        <v>21857</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>23744</v>
+        <v>24244</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>27256</v>
+        <v>27970</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>34541</v>
+        <v>33506</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>29888</v>
+        <v>30118</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>45058</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="36">
@@ -3572,40 +3572,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>18693</v>
+        <v>19663</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>48484</v>
+        <v>49403</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>21892</v>
+        <v>22211</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>64675</v>
+        <v>62537</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>27964</v>
+        <v>28681</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>57485</v>
+        <v>57570</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>43484</v>
+        <v>43116</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>97112</v>
+        <v>96049</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>54798</v>
+        <v>53023</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>112506</v>
+        <v>114068</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>71530</v>
+        <v>69880</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>173127</v>
+        <v>170470</v>
       </c>
     </row>
     <row r="39">
@@ -3616,40 +3616,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>42163</v>
+        <v>42984</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>80978</v>
+        <v>83681</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>45617</v>
+        <v>45394</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>103965</v>
+        <v>101049</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>53970</v>
+        <v>54422</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>92778</v>
+        <v>92791</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>74414</v>
+        <v>75301</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>134355</v>
+        <v>132798</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>88719</v>
+        <v>87427</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>160606</v>
+        <v>164095</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>110204</v>
+        <v>109409</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>226119</v>
+        <v>223580</v>
       </c>
     </row>
     <row r="40">
